--- a/Luban/MiniTemplate/Datas/#Skill.xlsx
+++ b/Luban/MiniTemplate/Datas/#Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -95,40 +95,61 @@
     <t>践踏</t>
   </si>
   <si>
+    <t>ScriptObject\SkillAsset\践踏</t>
+  </si>
+  <si>
     <t>Sprites/SkillIcon/01103</t>
   </si>
   <si>
     <t>旋风斩</t>
   </si>
   <si>
+    <t>ScriptObject\SkillAsset\旋风斩</t>
+  </si>
+  <si>
     <t>Sprites/SkillIcon/01104</t>
   </si>
   <si>
     <t>神罗天正</t>
   </si>
   <si>
+    <t>ScriptObject\SkillAsset\神罗天正</t>
+  </si>
+  <si>
     <t>Sprites/SkillIcon/01105</t>
   </si>
   <si>
     <t>万象天引</t>
   </si>
   <si>
+    <t>ScriptObject\SkillAsset\万象天引</t>
+  </si>
+  <si>
     <t>Sprites/SkillIcon/01106</t>
   </si>
   <si>
     <t>回血</t>
   </si>
   <si>
+    <t>ScriptObject\SkillAsset\回血</t>
+  </si>
+  <si>
     <t>Sprites/SkillIcon/01107</t>
   </si>
   <si>
     <t>三火球</t>
   </si>
   <si>
+    <t>ScriptObject\SkillAsset\三火球</t>
+  </si>
+  <si>
     <t>Sprites/SkillIcon/01108</t>
   </si>
   <si>
     <t>急速</t>
+  </si>
+  <si>
+    <t>ScriptObject\SkillAsset\急速</t>
   </si>
   <si>
     <t>Sprites/SkillIcon/01209</t>
@@ -1097,7 +1118,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1235,10 +1256,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1251,13 +1272,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1270,13 +1291,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1288,13 +1309,13 @@
         <v>1006</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1303,13 +1324,13 @@
         <v>1007</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1318,13 +1339,13 @@
         <v>1008</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1333,13 +1354,13 @@
         <v>1009</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1354,16 +1375,16 @@
         <v>2001</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1397,16 +1418,16 @@
     </row>
     <row r="29" customFormat="1" spans="2:7">
       <c r="B29" s="1">
-        <v>7010</v>
+        <v>7001</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
